--- a/data/output/PC/calibration/PC_calibration_debug_data.xlsx
+++ b/data/output/PC/calibration/PC_calibration_debug_data.xlsx
@@ -513,13 +513,13 @@
         <v>950.9663875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2492252498794999</v>
+        <v>0.2500878159697966</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05603030567605569</v>
+        <v>-0.05516773958575893</v>
       </c>
       <c r="J2" t="n">
-        <v>2612.858784198761</v>
+        <v>2614.762178063393</v>
       </c>
     </row>
     <row r="3">
@@ -545,13 +545,13 @@
         <v>950.310425</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2413439865064645</v>
+        <v>0.2421815533438199</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06099360214601779</v>
+        <v>-0.06015603530866237</v>
       </c>
       <c r="J3" t="n">
-        <v>2612.858784198761</v>
+        <v>2614.762178063393</v>
       </c>
     </row>
     <row r="4">
@@ -577,13 +577,13 @@
         <v>949.1808291666666</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2451939872486993</v>
+        <v>0.2460437226642663</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05399876637448908</v>
+        <v>-0.05314903095892209</v>
       </c>
       <c r="J4" t="n">
-        <v>2612.858784198761</v>
+        <v>2614.762178063393</v>
       </c>
     </row>
     <row r="5">
@@ -591,7 +591,7 @@
         <v>45524</v>
       </c>
       <c r="B5" t="n">
-        <v>1567.129697678575</v>
+        <v>1570.160559437637</v>
       </c>
       <c r="C5" t="n">
         <v>0.2965321375186846</v>
@@ -609,13 +609,13 @@
         <v>950.5386041666667</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2349415803644948</v>
+        <v>0.2335955360617108</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06159055715418982</v>
+        <v>-0.06293660145697383</v>
       </c>
       <c r="J5" t="n">
-        <v>2612.858784198761</v>
+        <v>2614.762178063393</v>
       </c>
     </row>
     <row r="6">
@@ -623,7 +623,7 @@
         <v>45525</v>
       </c>
       <c r="B6" t="n">
-        <v>1470.978002098959</v>
+        <v>1478.512267564952</v>
       </c>
       <c r="C6" t="n">
         <v>0.3011188271604938</v>
@@ -641,13 +641,13 @@
         <v>949.1741583333334</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3169665383736176</v>
+        <v>0.3104797446186247</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01584771121312378</v>
+        <v>0.009360917458130835</v>
       </c>
       <c r="J6" t="n">
-        <v>2612.858784198761</v>
+        <v>2614.762178063393</v>
       </c>
     </row>
     <row r="7">
@@ -673,13 +673,13 @@
         <v>945.5572208333333</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3745102286012687</v>
+        <v>0.3758170477575825</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06403337674941684</v>
+        <v>0.06534019590573065</v>
       </c>
       <c r="J7" t="n">
-        <v>2612.858784198761</v>
+        <v>2614.762178063393</v>
       </c>
     </row>
     <row r="8">
@@ -705,13 +705,13 @@
         <v>947.6508333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3484622703129843</v>
+        <v>0.3496694638572712</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03896227031298427</v>
+        <v>0.04016946385727116</v>
       </c>
       <c r="J8" t="n">
-        <v>2612.858784198761</v>
+        <v>2614.762178063393</v>
       </c>
     </row>
     <row r="9">
@@ -737,13 +737,13 @@
         <v>950.346525</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3197207793926338</v>
+        <v>0.3208224696989515</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01174238433090546</v>
+        <v>0.01284407463722309</v>
       </c>
       <c r="J9" t="n">
-        <v>2612.858784198761</v>
+        <v>2614.762178063393</v>
       </c>
     </row>
     <row r="10">
@@ -769,13 +769,13 @@
         <v>950.4733</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3356572500605347</v>
+        <v>0.3368168661148166</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02997360808522609</v>
+        <v>0.03113322413950803</v>
       </c>
       <c r="J10" t="n">
-        <v>2612.858784198761</v>
+        <v>2614.762178063393</v>
       </c>
     </row>
   </sheetData>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6080558729615713</v>
+        <v>0.6073080578614937</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04769656489543493</v>
+        <v>0.04778756820174838</v>
       </c>
     </row>
     <row r="4">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04368584244915653</v>
+        <v>0.04336192036757566</v>
       </c>
     </row>
     <row r="5">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008005986739899548</v>
+        <v>-0.008062392368050385</v>
       </c>
     </row>
     <row r="6">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7971596789110409</v>
+        <v>0.8167419695448312</v>
       </c>
     </row>
     <row r="7">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2612.858784198761</v>
+        <v>2614.762178063393</v>
       </c>
     </row>
     <row r="8">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05052523986653346</v>
+        <v>0.05070289590037074</v>
       </c>
     </row>
     <row r="11">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2962246523044664</v>
+        <v>0.2961682466763155</v>
       </c>
     </row>
   </sheetData>
